--- a/data/experiments/sampling/undersampling/undersampling_creation_metrics.xlsx
+++ b/data/experiments/sampling/undersampling/undersampling_creation_metrics.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="imputed" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="train_test_split" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="test_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tomeklinks" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NearMiss" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Neighbourhood Cleaning" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClusterCentroid_8" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClusterCentroid_4" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClusterCentroid_2" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="imputed" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="train_test_split" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="test_data" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Tomeklinks" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="NearMiss" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Neighbourhood Cleaning" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="ClusterCentroid_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ClusterCentroid_4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="ClusterCentroid_2" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,16 +537,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006272554397583008</v>
+        <v>0.006982946395874023</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001073131426693965</v>
+        <v>0.002122274887571138</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001995849609375</v>
+        <v>0.002423620223999023</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001552279926873231</v>
+        <v>0.0006758909052356131</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="K2" t="n">
         <v>0.6666666666666666</v>
@@ -575,10 +575,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.01073965799029738</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -586,16 +586,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.005053520202636719</v>
+        <v>0.009071063995361329</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0002856756844404998</v>
+        <v>0.0009814662719455796</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002093601226806641</v>
+        <v>0.003125476837158203</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0005416825077715859</v>
+        <v>0.0004506303742748325</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="K3" t="n">
         <v>0.6666666666666666</v>
@@ -624,10 +624,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.01073965799029738</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -635,16 +635,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.007754659652709961</v>
+        <v>0.01331877708435059</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0008653462496210822</v>
+        <v>0.0009953277529143639</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002371835708618164</v>
+        <v>0.003258466720581055</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0006653775590624017</v>
+        <v>0.0002083546496829678</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -655,28 +655,28 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="I4" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.7058823529411765</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.7333333333333333</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.7</v>
-      </c>
       <c r="L4" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7201426024955436</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05577733510227173</v>
+        <v>0.03647879427390083</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -684,16 +684,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02047395706176758</v>
+        <v>0.02297444343566895</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006878601921708539</v>
+        <v>0.003594018559809067</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003153181076049805</v>
+        <v>0.003107213973999024</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001999773762651631</v>
+        <v>0.0005407362934482516</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -704,25 +704,25 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8666666666666667</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7203208556149734</v>
       </c>
       <c r="N5" t="n">
-        <v>0.07888106377466157</v>
+        <v>0.07761772090364374</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -733,16 +733,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03067564964294434</v>
+        <v>0.03604283332824707</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003266366363286771</v>
+        <v>0.005566998027064994</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002524185180664063</v>
+        <v>0.002334403991699219</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0006169269950471182</v>
+        <v>0.0001585300621436208</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -753,28 +753,28 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6599999999999999</v>
+        <v>0.7026737967914439</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0573488351136175</v>
+        <v>0.1052880082190924</v>
       </c>
       <c r="O6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -782,16 +782,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1454046249389648</v>
+        <v>0.1913660526275635</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02796880387561605</v>
+        <v>0.03694418296453766</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001830577850341797</v>
+        <v>0.002544021606445312</v>
       </c>
       <c r="E7" t="n">
-        <v>4.732497692005121e-05</v>
+        <v>0.0006712122610589518</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.4</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.6488413547237076</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1011050059206873</v>
+        <v>0.07673584582415108</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -922,16 +922,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.007759284973144531</v>
+        <v>0.01083393096923828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001181768987914049</v>
+        <v>0.003383506015200046</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002269697189331055</v>
+        <v>0.002341461181640625</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0007272668751279302</v>
+        <v>0.0001178377791356946</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.008329010009765625</v>
+        <v>0.009214830398559571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0006700978112495249</v>
+        <v>0.0003062678110605185</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001865768432617188</v>
+        <v>0.002247142791748047</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0001057307881232323</v>
+        <v>4.12959699668908e-05</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -1020,16 +1020,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01285061836242676</v>
+        <v>0.01432003974914551</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004380409111073216</v>
+        <v>0.0005012017337039694</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002218770980834961</v>
+        <v>0.00224919319152832</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0002905429260023116</v>
+        <v>4.397653796548141e-05</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -1069,16 +1069,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02465782165527344</v>
+        <v>0.02647247314453125</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0005556999685423319</v>
+        <v>0.001855102582780547</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002085065841674805</v>
+        <v>0.002260494232177735</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0001613048274025184</v>
+        <v>7.609511334742314e-05</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -1118,16 +1118,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04585542678833008</v>
+        <v>0.07033686637878418</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005276059483150559</v>
+        <v>0.01619713710520082</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002187776565551758</v>
+        <v>0.002262973785400391</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0003729873896783382</v>
+        <v>4.127344447512493e-05</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -1141,10 +1141,10 @@
         <v>0.9326923076923077</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9182692307692307</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9468599033816425</v>
+        <v>0.9516908212560387</v>
       </c>
       <c r="K6" t="n">
         <v>0.9130434782608695</v>
@@ -1153,10 +1153,10 @@
         <v>0.9033816425120773</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9228493125232256</v>
+        <v>0.9228539576365664</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01529388595083606</v>
+        <v>0.01727421161775646</v>
       </c>
       <c r="O6" t="n">
         <v>5</v>
@@ -1167,16 +1167,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2196177959442139</v>
+        <v>0.3749877452850342</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01583850118448026</v>
+        <v>0.02855058967317393</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002527379989624024</v>
+        <v>0.00312657356262207</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0006844482532059081</v>
+        <v>0.0007308661931637419</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -1190,10 +1190,10 @@
         <v>0.9278846153846154</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8990384615384616</v>
+        <v>0.9038461538461539</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9420289855072463</v>
+        <v>0.9371980676328503</v>
       </c>
       <c r="K7" t="n">
         <v>0.9082125603864735</v>
@@ -1202,10 +1202,10 @@
         <v>0.8985507246376812</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9151430694908956</v>
+        <v>0.9151384243775549</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0171341514717018</v>
+        <v>0.01483056299792347</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -1307,16 +1307,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01197247505187988</v>
+        <v>0.008054590225219727</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00380350690777735</v>
+        <v>0.002117275472066012</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002264070510864258</v>
+        <v>0.002558755874633789</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0002544493687916458</v>
+        <v>0.0006713685898879979</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -1327,25 +1327,25 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9241379310344827</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9241379310344827</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9241379310344827</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9241379310344827</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9172413793103448</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9227586206896552</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.002758620689655178</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -1356,16 +1356,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01518783569335938</v>
+        <v>0.007561445236206055</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004554808595175902</v>
+        <v>0.000213117778938632</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002357912063598633</v>
+        <v>0.002166748046875</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000444845762731155</v>
+        <v>7.016946775026618e-05</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -1376,25 +1376,25 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9241379310344827</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9241379310344827</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9241379310344827</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9241379310344827</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9172413793103448</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9227586206896552</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.002758620689655178</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
@@ -1405,16 +1405,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01237549781799316</v>
+        <v>0.01060266494750977</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002461860312850004</v>
+        <v>0.0003383777184339967</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002731132507324219</v>
+        <v>0.002138137817382812</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001008172603091978</v>
+        <v>1.603123405585126e-05</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -1425,25 +1425,25 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9241379310344827</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9241379310344827</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9241379310344827</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9241379310344827</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9172413793103448</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9227586206896552</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.002758620689655178</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -1454,16 +1454,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02207403182983398</v>
+        <v>0.02128758430480957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002256889106426862</v>
+        <v>0.001367981747323776</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002068471908569336</v>
+        <v>0.002308130264282227</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0002192469252797082</v>
+        <v>0.0003185022367169496</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -1474,25 +1474,25 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9172413793103448</v>
       </c>
       <c r="I5" t="n">
-        <v>0.896551724137931</v>
+        <v>0.9172413793103448</v>
       </c>
       <c r="J5" t="n">
         <v>0.9379310344827586</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9379310344827586</v>
+        <v>0.903448275862069</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9379310344827586</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9282758620689655</v>
+        <v>0.9213793103448277</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01608538453750426</v>
+        <v>0.01202454880976737</v>
       </c>
       <c r="O5" t="n">
         <v>4</v>
@@ -1503,16 +1503,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04573850631713867</v>
+        <v>0.04589672088623047</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004399604013122306</v>
+        <v>0.002315051795759095</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00192108154296875</v>
+        <v>0.002224636077880859</v>
       </c>
       <c r="E6" t="n">
-        <v>3.716687951443858e-05</v>
+        <v>4.612087708894468e-05</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -1523,25 +1523,25 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.9448275862068966</v>
+        <v>0.903448275862069</v>
       </c>
       <c r="I6" t="n">
-        <v>0.903448275862069</v>
+        <v>0.8896551724137931</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9448275862068966</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="K6" t="n">
+        <v>0.896551724137931</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.9310344827586207</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.903448275862069</v>
-      </c>
       <c r="M6" t="n">
-        <v>0.9255172413793102</v>
+        <v>0.9103448275862069</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01870987581551797</v>
+        <v>0.01744704915954966</v>
       </c>
       <c r="O6" t="n">
         <v>5</v>
@@ -1552,16 +1552,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1758202075958252</v>
+        <v>0.2357619762420654</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0361070867164171</v>
+        <v>0.04770263606945434</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002182292938232422</v>
+        <v>0.002715253829956055</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0002738030518841901</v>
+        <v>0.0006636828587679304</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -1572,25 +1572,25 @@
         </is>
       </c>
       <c r="H7" t="n">
+        <v>0.896551724137931</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.8827586206896552</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.896551724137931</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.8827586206896552</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.9241379310344827</v>
       </c>
-      <c r="I7" t="n">
-        <v>0.8896551724137931</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.9448275862068966</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.9241379310344827</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.896551724137931</v>
-      </c>
       <c r="M7" t="n">
-        <v>0.9158620689655173</v>
+        <v>0.8965517241379309</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0201775708114866</v>
+        <v>0.01510958779324595</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -1692,16 +1692,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006402778625488281</v>
+        <v>0.01135492324829102</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0009604195282690623</v>
+        <v>0.001848082818989665</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002063465118408203</v>
+        <v>0.003084802627563477</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0004479881269362974</v>
+        <v>0.0005909424567611622</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -1712,25 +1712,25 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.9206349206349206</v>
+        <v>0.9365079365079365</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9365079365079365</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9166922683051715</v>
+        <v>0.9358934971838198</v>
       </c>
       <c r="N2" t="n">
-        <v>0.005985748493624429</v>
+        <v>0.0005016876073288919</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -1741,16 +1741,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.007116985321044922</v>
+        <v>0.01037578582763672</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001003484720106279</v>
+        <v>0.002630220280737889</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00188136100769043</v>
+        <v>0.002842950820922852</v>
       </c>
       <c r="E3" t="n">
-        <v>8.389461632673553e-05</v>
+        <v>0.0007498233822395181</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -1761,25 +1761,25 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.9206349206349206</v>
+        <v>0.9365079365079365</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9365079365079365</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9166922683051715</v>
+        <v>0.9358934971838198</v>
       </c>
       <c r="N3" t="n">
-        <v>0.005985748493624429</v>
+        <v>0.0005016876073288919</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
@@ -1790,16 +1790,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.007940959930419923</v>
+        <v>0.01061129570007324</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001002176953557404</v>
+        <v>0.002638836970181798</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002032613754272461</v>
+        <v>0.003069114685058594</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0003409020397651769</v>
+        <v>0.0007955093531821735</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -1810,25 +1810,25 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.9206349206349206</v>
+        <v>0.9365079365079365</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.9365079365079365</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9166922683051715</v>
+        <v>0.9358934971838198</v>
       </c>
       <c r="N4" t="n">
-        <v>0.005985748493624429</v>
+        <v>0.0005016876073288919</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -1839,16 +1839,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01437520980834961</v>
+        <v>0.02025113105773926</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001075242469387929</v>
+        <v>0.005508457552583925</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001904010772705078</v>
+        <v>0.00278620719909668</v>
       </c>
       <c r="E5" t="n">
-        <v>4.992009097405396e-06</v>
+        <v>0.0007111847162630353</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -1859,25 +1859,25 @@
         </is>
       </c>
       <c r="H5" t="n">
+        <v>0.9365079365079365</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.9206349206349206</v>
       </c>
-      <c r="I5" t="n">
-        <v>0.8888888888888888</v>
-      </c>
       <c r="J5" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L5" t="n">
         <v>0.9193548387096774</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9135176651305683</v>
+        <v>0.9294930875576037</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01232436392885974</v>
+        <v>0.007774809174030649</v>
       </c>
       <c r="O5" t="n">
         <v>4</v>
@@ -1888,16 +1888,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03175435066223144</v>
+        <v>0.03903260231018067</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003723109631223364</v>
+        <v>0.00453364157982727</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002488899230957031</v>
+        <v>0.002502012252807617</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0005887417345740268</v>
+        <v>0.0005551671791571404</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -1908,28 +1908,28 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.873015873015873</v>
+        <v>0.9365079365079365</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="J6" t="n">
+        <v>0.9354838709677419</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.9193548387096774</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>0.9354838709677419</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.8870967741935484</v>
-      </c>
       <c r="M6" t="n">
-        <v>0.8944188428059396</v>
+        <v>0.9294930875576037</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02901495938785454</v>
+        <v>0.007774809174030649</v>
       </c>
       <c r="O6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1937,16 +1937,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1521390438079834</v>
+        <v>0.1477175712585449</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02333607747193379</v>
+        <v>0.03407742343096021</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001936817169189453</v>
+        <v>0.003151321411132813</v>
       </c>
       <c r="E7" t="n">
-        <v>7.917487227432291e-05</v>
+        <v>0.0007925239937869165</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -1957,25 +1957,25 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7936507936507936</v>
+        <v>0.873015873015873</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.8870967741935484</v>
       </c>
       <c r="K7" t="n">
         <v>0.8709677419354839</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7903225806451613</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8206349206349207</v>
+        <v>0.8910394265232975</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0304319818209876</v>
+        <v>0.01861899292074942</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -2077,16 +2077,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.007600593566894531</v>
+        <v>0.0103482723236084</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001731001996443614</v>
+        <v>0.002744490417308739</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001824474334716797</v>
+        <v>0.003203248977661133</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001107243809442251</v>
+        <v>0.0009115877375169502</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -2097,28 +2097,28 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.9214285714285714</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.9214285714285714</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.9214285714285714</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.9214285714285714</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9290780141843971</v>
+        <v>0.9201215805471123</v>
       </c>
       <c r="N2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>0.002613981762917916</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2126,16 +2126,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.007351398468017578</v>
+        <v>0.009804058074951171</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0008004009203229565</v>
+        <v>0.002300987118630711</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002275800704956055</v>
+        <v>0.002791118621826172</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0007966310862352143</v>
+        <v>0.0007910719027062352</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -2146,28 +2146,28 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.9214285714285714</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.9214285714285714</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.9214285714285714</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.9214285714285714</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9290780141843971</v>
+        <v>0.9201215805471123</v>
       </c>
       <c r="N3" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>0.002613981762917916</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2175,16 +2175,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0100830078125</v>
+        <v>0.01487250328063965</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0008788713635161834</v>
+        <v>0.004793795588736102</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002180624008178711</v>
+        <v>0.003066158294677734</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0005696407018794077</v>
+        <v>0.0007089728111274009</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -2195,28 +2195,28 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.9214285714285714</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.9214285714285714</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.9214285714285714</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.9214285714285714</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9290780141843971</v>
+        <v>0.9201215805471123</v>
       </c>
       <c r="N4" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>0.002613981762917916</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2224,16 +2224,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01844053268432617</v>
+        <v>0.02725510597229004</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0008543180842866226</v>
+        <v>0.005856655864475223</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002256250381469726</v>
+        <v>0.002585458755493164</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0003227446018736693</v>
+        <v>0.0006151546498046469</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -2244,25 +2244,25 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9148936170212766</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9361702127659575</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.9071428571428571</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9361702127659575</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9290780141843971</v>
+        <v>0.9229787234042552</v>
       </c>
       <c r="N5" t="n">
-        <v>0.007769114290853431</v>
+        <v>0.01040091202731273</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -2273,16 +2273,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04031352996826172</v>
+        <v>0.06418757438659668</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003275343598423671</v>
+        <v>0.004423078503228234</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002039527893066406</v>
+        <v>0.003014564514160156</v>
       </c>
       <c r="E6" t="n">
-        <v>7.088703597778621e-05</v>
+        <v>0.0007243451507364115</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -2293,25 +2293,25 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.9432624113475178</v>
+        <v>0.9078014184397163</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9078014184397163</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9432624113475178</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9078014184397163</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9262411347517731</v>
+        <v>0.9058459979736575</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01592194632669765</v>
+        <v>0.01526757264409204</v>
       </c>
       <c r="O6" t="n">
         <v>5</v>
@@ -2322,16 +2322,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1886924266815186</v>
+        <v>0.2893113613128662</v>
       </c>
       <c r="C7" t="n">
-        <v>0.008538309304451113</v>
+        <v>0.02153989515455869</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001967811584472656</v>
+        <v>0.003059196472167969</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0001812750627886599</v>
+        <v>0.0006769837915578538</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -2342,25 +2342,25 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.9219858156028369</v>
+        <v>0.900709219858156</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8936170212765957</v>
+        <v>0.8642857142857143</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9290780141843972</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9219858156028369</v>
+        <v>0.8857142857142857</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8865248226950354</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9106382978723404</v>
+        <v>0.8944275582573455</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01713907230297105</v>
+        <v>0.02093886927912305</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -2462,16 +2462,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.005510139465332031</v>
+        <v>0.008923625946044922</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001065503757569786</v>
+        <v>0.002271460891220331</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002096319198608399</v>
+        <v>0.003059577941894531</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0005479529674234407</v>
+        <v>0.0008284874358568226</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -2482,28 +2482,28 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.85</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="K2" t="n">
-        <v>0.85</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L2" t="n">
-        <v>0.95</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="M2" t="n">
-        <v>0.85</v>
+        <v>0.7786561264822135</v>
       </c>
       <c r="N2" t="n">
-        <v>0.08366600265340757</v>
+        <v>0.0881963357247343</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2511,16 +2511,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.005510282516479492</v>
+        <v>0.00769200325012207</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001037105257641033</v>
+        <v>0.002058996976394918</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001679372787475586</v>
+        <v>0.002610397338867187</v>
       </c>
       <c r="E3" t="n">
-        <v>2.742597219208052e-05</v>
+        <v>0.0007053249360844306</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -2531,25 +2531,25 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.85</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="K3" t="n">
-        <v>0.85</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L3" t="n">
-        <v>0.95</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="M3" t="n">
-        <v>0.85</v>
+        <v>0.8221343873517787</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08366600265340757</v>
+        <v>0.04553181265718328</v>
       </c>
       <c r="O3" t="n">
         <v>3</v>
@@ -2560,16 +2560,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.006983232498168945</v>
+        <v>0.009980440139770508</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001220318925642232</v>
+        <v>0.002185717477452053</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002075386047363281</v>
+        <v>0.002858543395996094</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0003569427731039924</v>
+        <v>0.000702706081821183</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -2580,25 +2580,25 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.85</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="I4" t="n">
-        <v>0.75</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L4" t="n">
-        <v>0.95</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8699999999999999</v>
+        <v>0.8399209486166008</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06782329983125267</v>
+        <v>0.05044754320833832</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -2609,16 +2609,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01158418655395508</v>
+        <v>0.01397547721862793</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001379816110348071</v>
+        <v>0.002309786936714037</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00232534408569336</v>
+        <v>0.002526617050170898</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0005219565346382533</v>
+        <v>0.0006826720339501393</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -2629,25 +2629,25 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="J5" t="n">
-        <v>0.85</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5" t="n">
-        <v>0.95</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M5" t="n">
-        <v>0.86</v>
+        <v>0.8395256916996047</v>
       </c>
       <c r="N5" t="n">
-        <v>0.08602325267042628</v>
+        <v>0.08959699278313193</v>
       </c>
       <c r="O5" t="n">
         <v>2</v>
@@ -2658,16 +2658,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02034807205200195</v>
+        <v>0.03262701034545899</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003791452915558385</v>
+        <v>0.003832415000601166</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001855039596557617</v>
+        <v>0.002642202377319336</v>
       </c>
       <c r="E6" t="n">
-        <v>4.441502007368094e-06</v>
+        <v>0.0005592088007073732</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -2678,28 +2678,28 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.6</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="J6" t="n">
-        <v>0.85</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8099999999999999</v>
+        <v>0.8221343873517787</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1113552872566005</v>
+        <v>0.1193387919089696</v>
       </c>
       <c r="O6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2707,16 +2707,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.08266739845275879</v>
+        <v>0.1309070587158203</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02180892550947832</v>
+        <v>0.01844240519190405</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001983165740966797</v>
+        <v>0.002790927886962891</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0001971117582123169</v>
+        <v>0.0007861734845607094</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -2727,25 +2727,25 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.65</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="J7" t="n">
-        <v>0.75</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="K7" t="n">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="M7" t="n">
-        <v>0.71</v>
+        <v>0.7592885375494072</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03741657386773941</v>
+        <v>0.06420218341263859</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -2847,16 +2847,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.007870054244995118</v>
+        <v>0.01024456024169922</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003064874021052956</v>
+        <v>0.002128715993785365</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002795267105102539</v>
+        <v>0.002629852294921875</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001148184701577599</v>
+        <v>0.0006671702776915276</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -2867,25 +2867,25 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.92</v>
+        <v>0.9105691056910569</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9105691056910569</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9105691056910569</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9105691056910569</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9024390243902439</v>
       </c>
       <c r="M2" t="n">
-        <v>0.919483870967742</v>
+        <v>0.9089430894308943</v>
       </c>
       <c r="N2" t="n">
-        <v>0.000258064516129064</v>
+        <v>0.003252032520325176</v>
       </c>
       <c r="O2" t="n">
         <v>3</v>
@@ -2896,16 +2896,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01423001289367676</v>
+        <v>0.009639978408813477</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0101270810854256</v>
+        <v>0.002868800642138321</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003119897842407226</v>
+        <v>0.002593088150024414</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00183793362388197</v>
+        <v>0.0006636991626096882</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -2916,25 +2916,25 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.92</v>
+        <v>0.9105691056910569</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9105691056910569</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9105691056910569</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9105691056910569</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9024390243902439</v>
       </c>
       <c r="M3" t="n">
-        <v>0.919483870967742</v>
+        <v>0.9089430894308943</v>
       </c>
       <c r="N3" t="n">
-        <v>0.000258064516129064</v>
+        <v>0.003252032520325176</v>
       </c>
       <c r="O3" t="n">
         <v>3</v>
@@ -2945,16 +2945,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.008310842514038085</v>
+        <v>0.0142798900604248</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001952131608261745</v>
+        <v>0.003277351096515103</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001733875274658203</v>
+        <v>0.00291132926940918</v>
       </c>
       <c r="E4" t="n">
-        <v>6.215487762361297e-05</v>
+        <v>0.0006698288745628551</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -2965,25 +2965,25 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.92</v>
+        <v>0.9105691056910569</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9105691056910569</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9105691056910569</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9105691056910569</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9024390243902439</v>
       </c>
       <c r="M4" t="n">
-        <v>0.919483870967742</v>
+        <v>0.9089430894308943</v>
       </c>
       <c r="N4" t="n">
-        <v>0.000258064516129064</v>
+        <v>0.003252032520325176</v>
       </c>
       <c r="O4" t="n">
         <v>3</v>
@@ -2994,16 +2994,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0175717830657959</v>
+        <v>0.0255915641784668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001436805916579444</v>
+        <v>0.003648753037825797</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001925802230834961</v>
+        <v>0.003034734725952149</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0002151029069193818</v>
+        <v>0.0007551499459556001</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -3014,25 +3014,25 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.943089430894309</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9274193548387096</v>
+        <v>0.9105691056910569</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.9105691056910569</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.926829268292683</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9435483870967742</v>
+        <v>0.926829268292683</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9355870967741936</v>
+        <v>0.9235772357723577</v>
       </c>
       <c r="N5" t="n">
-        <v>0.005104624415825248</v>
+        <v>0.01216799150170391</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -3043,16 +3043,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03520054817199707</v>
+        <v>0.04342107772827149</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004132248972292067</v>
+        <v>0.001694054637393042</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001983642578125</v>
+        <v>0.002370119094848633</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0001306836587392682</v>
+        <v>0.0003113483020552804</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -3063,25 +3063,25 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.92</v>
+        <v>0.9186991869918699</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.8780487804878049</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9274193548387096</v>
+        <v>0.9105691056910569</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9024390243902439</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9596774193548387</v>
+        <v>0.943089430894309</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9291612903225805</v>
+        <v>0.9105691056910569</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01555976026287314</v>
+        <v>0.0212006582283013</v>
       </c>
       <c r="O6" t="n">
         <v>2</v>
@@ -3092,16 +3092,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1851354598999023</v>
+        <v>0.2159614562988281</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02182016265726221</v>
+        <v>0.01712511960372547</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001938629150390625</v>
+        <v>0.002279233932495117</v>
       </c>
       <c r="E7" t="n">
-        <v>9.492849426973156e-05</v>
+        <v>5.254550764072728e-05</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -3112,25 +3112,25 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.864</v>
+        <v>0.8861788617886179</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8780487804878049</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9112903225806451</v>
+        <v>0.8617886178861789</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9032258064516129</v>
+        <v>0.8861788617886179</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9435483870967742</v>
+        <v>0.9186991869918699</v>
       </c>
       <c r="M7" t="n">
-        <v>0.905058064516129</v>
+        <v>0.8861788617886178</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02534886574971526</v>
+        <v>0.01853943780649004</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.005869388580322266</v>
+        <v>0.00750570297241211</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006848330053506239</v>
+        <v>0.001177896728187168</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001926755905151367</v>
+        <v>0.002624893188476563</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0003172760148163749</v>
+        <v>0.0007982359222347907</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -3252,25 +3252,25 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8910891089108911</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8910891089108911</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8910891089108911</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8811881188118812</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.89</v>
       </c>
       <c r="M2" t="n">
-        <v>0.888888888888889</v>
+        <v>0.8888910891089109</v>
       </c>
       <c r="N2" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>0.003874514367272091</v>
       </c>
       <c r="O2" t="n">
         <v>2</v>
@@ -3281,16 +3281,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.006548261642456055</v>
+        <v>0.007413673400878906</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007063611369643549</v>
+        <v>0.0007140203360923707</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002266788482666016</v>
+        <v>0.002190542221069336</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0008832266459616505</v>
+        <v>0.0001360041559683545</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -3301,25 +3301,25 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8910891089108911</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8910891089108911</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8910891089108911</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8811881188118812</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.89</v>
       </c>
       <c r="M3" t="n">
-        <v>0.888888888888889</v>
+        <v>0.8888910891089109</v>
       </c>
       <c r="N3" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>0.003874514367272091</v>
       </c>
       <c r="O3" t="n">
         <v>2</v>
@@ -3330,16 +3330,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.008404731750488281</v>
+        <v>0.009268569946289062</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001374263328158483</v>
+        <v>0.0003631177546011256</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002413082122802735</v>
+        <v>0.00210881233215332</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0006981599393177386</v>
+        <v>4.988819751606203e-05</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -3350,25 +3350,25 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8910891089108911</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8910891089108911</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8910891089108911</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8811881188118812</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.89</v>
       </c>
       <c r="M4" t="n">
-        <v>0.888888888888889</v>
+        <v>0.8888910891089109</v>
       </c>
       <c r="N4" t="n">
-        <v>1.110223024625157e-16</v>
+        <v>0.003874514367272091</v>
       </c>
       <c r="O4" t="n">
         <v>2</v>
@@ -3379,16 +3379,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01812000274658203</v>
+        <v>0.01920971870422363</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0009990457381461352</v>
+        <v>0.001807802744432736</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001914358139038086</v>
+        <v>0.002142477035522461</v>
       </c>
       <c r="E5" t="n">
-        <v>4.938430968236882e-06</v>
+        <v>5.211404763860415e-05</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -3399,25 +3399,25 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9207920792079208</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8811881188118812</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9111111111111111</v>
+        <v>0.900990099009901</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8613861386138614</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8777777777777778</v>
+        <v>0.89</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8911111111111112</v>
+        <v>0.8908712871287129</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01088662107903635</v>
+        <v>0.01980677169752643</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -3428,16 +3428,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03468079566955566</v>
+        <v>0.04322428703308105</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003628582586077306</v>
+        <v>0.002058085831029344</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00252385139465332</v>
+        <v>0.002252721786499024</v>
       </c>
       <c r="E6" t="n">
-        <v>0.001002006246024524</v>
+        <v>5.186020078088064e-05</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -3448,25 +3448,25 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.8444444444444444</v>
+        <v>0.8811881188118812</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8777777777777778</v>
+        <v>0.8613861386138614</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9</v>
+        <v>0.8910891089108911</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8514851485148515</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8555555555555555</v>
+        <v>0.87</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8733333333333333</v>
+        <v>0.8710297029702969</v>
       </c>
       <c r="N6" t="n">
-        <v>0.02060804110110157</v>
+        <v>0.01401157671117509</v>
       </c>
       <c r="O6" t="n">
         <v>5</v>
@@ -3477,16 +3477,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1753183841705322</v>
+        <v>0.2540708541870117</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01880481019540638</v>
+        <v>0.01453473702385007</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001920175552368164</v>
+        <v>0.003028345108032226</v>
       </c>
       <c r="E7" t="n">
-        <v>7.702025756356771e-05</v>
+        <v>0.0006966350565635621</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -3497,25 +3497,25 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.8111111111111111</v>
+        <v>0.8415841584158416</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8555555555555555</v>
+        <v>0.8118811881188119</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8777777777777778</v>
+        <v>0.8712871287128713</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8555555555555555</v>
+        <v>0.8415841584158416</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7888888888888889</v>
+        <v>0.84</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8377777777777778</v>
+        <v>0.8412673267326733</v>
       </c>
       <c r="N7" t="n">
-        <v>0.03265986323710904</v>
+        <v>0.01879649188142106</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -3617,16 +3617,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006198835372924805</v>
+        <v>0.007917022705078125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001433963365146673</v>
+        <v>0.002082374864992462</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001778841018676758</v>
+        <v>0.002794408798217774</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000107491301289435</v>
+        <v>0.001313556022546616</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -3637,28 +3637,28 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.8</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="M2" t="n">
         <v>0.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.007142857142857162</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -3666,16 +3666,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.007021284103393555</v>
+        <v>0.008964157104492188</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001086994346174796</v>
+        <v>0.002779590415185784</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00178837776184082</v>
+        <v>0.002698516845703125</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000100062207015825</v>
+        <v>0.0007783272521754068</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -3686,28 +3686,28 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.8</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="M3" t="n">
         <v>0.8</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.007142857142857162</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3715,16 +3715,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01036491394042969</v>
+        <v>0.01189308166503906</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001703632796090143</v>
+        <v>0.002513763818415362</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001984548568725586</v>
+        <v>0.002465009689331055</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000183852813878538</v>
+        <v>0.0005771692194425415</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -3735,28 +3735,28 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.8</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8</v>
+        <v>0.8142857142857143</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.008748177652797035</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3764,16 +3764,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01635031700134277</v>
+        <v>0.01933479309082031</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001735587335948758</v>
+        <v>0.001622156021210172</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002079629898071289</v>
+        <v>0.002953910827636719</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0003248778589377151</v>
+        <v>0.0009912862228496173</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -3784,28 +3784,28 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.76</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="J5" t="n">
-        <v>0.82</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="K5" t="n">
-        <v>0.84</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L5" t="n">
-        <v>0.82</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8080000000000001</v>
+        <v>0.8071428571428572</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02712931993250105</v>
+        <v>0.02082482819587608</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -3813,16 +3813,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03186478614807129</v>
+        <v>0.03777108192443848</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004813940706681578</v>
+        <v>0.00576607102186888</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001908206939697266</v>
+        <v>0.002729415893554688</v>
       </c>
       <c r="E6" t="n">
-        <v>2.127602301871553e-05</v>
+        <v>0.0006048553515859384</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -3833,25 +3833,25 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.7</v>
+        <v>0.6964285714285714</v>
       </c>
       <c r="I6" t="n">
-        <v>0.78</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="J6" t="n">
-        <v>0.76</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K6" t="n">
-        <v>0.84</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="L6" t="n">
-        <v>0.76</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="M6" t="n">
-        <v>0.768</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0448998886412873</v>
+        <v>0.05463235193135127</v>
       </c>
       <c r="O6" t="n">
         <v>5</v>
@@ -3862,16 +3862,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1953811645507812</v>
+        <v>0.2231600284576416</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03108596698662036</v>
+        <v>0.01372668591981759</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001849603652954102</v>
+        <v>0.002212619781494141</v>
       </c>
       <c r="E7" t="n">
-        <v>6.374608388258707e-05</v>
+        <v>6.101496183576705e-05</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -3882,25 +3882,25 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.68</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="I7" t="n">
-        <v>0.74</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="J7" t="n">
-        <v>0.74</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K7" t="n">
-        <v>0.82</v>
+        <v>0.7321428571428571</v>
       </c>
       <c r="L7" t="n">
-        <v>0.74</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="M7" t="n">
-        <v>0.744</v>
+        <v>0.7392857142857143</v>
       </c>
       <c r="N7" t="n">
-        <v>0.04454211490264014</v>
+        <v>0.06144518047887588</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>

--- a/data/experiments/sampling/undersampling/undersampling_creation_metrics.xlsx
+++ b/data/experiments/sampling/undersampling/undersampling_creation_metrics.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="imputed" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="train_test_split" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="test_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Tomeklinks" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="NearMiss" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Neighbourhood Cleaning" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="ClusterCentroid_8" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="ClusterCentroid_4" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="ClusterCentroid_2" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="imputed" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Training_Data" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Testing_Data" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tomek_Links" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NearMiss_Ratio-0.125" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NearMiss_Ratio-0.25" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NearMiss_Ratio-0.5" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Neighbourhood_Cleaning" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClusterCentroid_Ratio-0.125" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClusterCentroid_Ratio-0.25" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ClusterCentroid_Ratio-0.5" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006982946395874023</v>
+        <v>0.005574417114257812</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002122274887571138</v>
+        <v>0.0005674050707242371</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002423620223999023</v>
+        <v>0.001778125762939453</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0006758909052356131</v>
+        <v>0.0001216666618449087</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -557,28 +559,28 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8804347826086957</v>
       </c>
       <c r="L2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8901098901098901</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8888915432393694</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01073965799029738</v>
+        <v>0.00425361134525654</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -586,16 +588,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.009071063995361329</v>
+        <v>0.006319761276245117</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009814662719455796</v>
+        <v>0.0008787683206518985</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003125476837158203</v>
+        <v>0.001792001724243164</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0004506303742748325</v>
+        <v>8.379473911694583e-05</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -606,28 +608,28 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8804347826086957</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8901098901098901</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8888915432393694</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01073965799029738</v>
+        <v>0.00425361134525654</v>
       </c>
       <c r="O3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -635,16 +637,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01331877708435059</v>
+        <v>0.008552742004394532</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009953277529143639</v>
+        <v>0.0008744865799259035</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003258466720581055</v>
+        <v>0.00175166130065918</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0002083546496829678</v>
+        <v>7.201772489070266e-05</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -655,25 +657,25 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.7647058823529411</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8804347826086957</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.8901098901098901</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7201426024955436</v>
+        <v>0.8888915432393694</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03647879427390083</v>
+        <v>0.00425361134525654</v>
       </c>
       <c r="O4" t="n">
         <v>2</v>
@@ -684,16 +686,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02297444343566895</v>
+        <v>0.01418280601501465</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003594018559809067</v>
+        <v>0.001035553471340686</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003107213973999024</v>
+        <v>0.00187220573425293</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0005407362934482516</v>
+        <v>2.581253035972702e-05</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -704,25 +706,25 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.7352941176470589</v>
+        <v>0.9021739130434783</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.9021739130434783</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.8586956521739131</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.9120879120879121</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7203208556149734</v>
+        <v>0.8889393215480172</v>
       </c>
       <c r="N5" t="n">
-        <v>0.07761772090364374</v>
+        <v>0.02086241365313445</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -733,16 +735,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03604283332824707</v>
+        <v>0.02757949829101563</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005566998027064994</v>
+        <v>0.002636290612123023</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002334403991699219</v>
+        <v>0.001915407180786133</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0001585300621436208</v>
+        <v>8.467586126770061e-06</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -753,28 +755,28 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.7352941176470589</v>
+        <v>0.8804347826086957</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6176470588235294</v>
+        <v>0.8586956521739131</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.8586956521739131</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.8901098901098901</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7026737967914439</v>
+        <v>0.8715002388915434</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1052880082190924</v>
+        <v>0.01231100629621505</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -782,16 +784,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1913660526275635</v>
+        <v>0.1469710826873779</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03694418296453766</v>
+        <v>0.02006159624831401</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002544021606445312</v>
+        <v>0.002054643630981445</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0006712122610589518</v>
+        <v>0.0002353293746143841</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -802,28 +804,798 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.7058823529411765</v>
+        <v>0.8369565217391305</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="J7" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.8478260869565217</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6488413547237076</v>
+        <v>0.8475155279503104</v>
       </c>
       <c r="N7" t="n">
-        <v>0.07673584582415108</v>
+        <v>0.006394801329805558</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_fit_time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std_fit_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_score_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param_C</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>split0_test_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>split1_test_score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>split2_test_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>split3_test_score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>split4_test_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mean_test_score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>std_test_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rank_test_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.004967737197875977</v>
+      </c>
+      <c r="C2" t="n">
+        <v>7.240099823885604e-05</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.002102470397949219</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0006821777874698905</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'C': 0.001}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7843137254901961</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.007843137254901978</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.005340862274169922</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0005733839517397438</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.001711368560791016</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.863260165583694e-05</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'C': 0.01}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.7843137254901961</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.007843137254901978</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.008123588562011719</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0007615706622407886</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.001812028884887695</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0001218579165592501</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'C': 0.1}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.7843137254901961</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.807843137254902</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.01467316622264289</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.01297240257263184</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.001158870348998475</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.001810359954833984</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9.182890821526484e-05</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'C': 1}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.8627450980392157</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.819607843137255</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.02286647801900118</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.02487082481384277</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.003339973888711059</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.001912355422973633</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0001641124289655396</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'C': 10}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.7843137254901961</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.8627450980392157</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.8431372549019608</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.823529411764706</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.02772967769359011</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.132861852645874</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01598408754923117</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.002510595321655274</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.001092161003380404</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'C': 1000}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.803921568627451</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6862745098039216</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.8235294117647058</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.7450980392156863</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.7450980392156863</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.7607843137254902</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.04866538684702296</v>
+      </c>
+      <c r="O7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>mean_fit_time</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>std_fit_time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_score_time</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>std_score_time</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param_C</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>params</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>split0_test_score</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>split1_test_score</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>split2_test_score</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>split3_test_score</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>split4_test_score</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>mean_test_score</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>std_test_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>rank_test_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.004796504974365234</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0004032977506990906</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.001750755310058594</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0001229781797427834</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'C': 0.001}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.6774193548387096</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6774193548387096</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6451612903225806</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.01177897973129388</v>
+      </c>
+      <c r="O2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.004824066162109375</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0006964740990604523</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.001841640472412109</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0002424654636313791</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'C': 0.01}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6774193548387096</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6774193548387096</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6451612903225806</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.01177897973129388</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.005945682525634766</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.0004217457943214738</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.001990652084350586</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0005930661958665701</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'C': 0.1}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7741935483870968</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7096774193548387</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6451612903225806</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.7666666666666667</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7258064516129032</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0465431197450969</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.009710597991943359</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0007920656246244088</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.001965236663818359</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0002691263344838011</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'C': 1}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7741935483870968</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7096774193548387</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5806451612903226</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.746236559139785</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1137632375956068</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.01984682083129883</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.002084532420170536</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.001831531524658203</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.000152197950529016</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'C': 10}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.7419354838709677</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6774193548387096</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.6451612903225806</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7395698924731182</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.0878156974372088</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.09644598960876465</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.007401725733839968</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.001883459091186523</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.016514224569956e-05</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'C': 1000}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.6774193548387096</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.6774193548387096</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.6774193548387096</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.7333333333333333</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.7331182795698925</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.08620518025091492</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -922,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01083393096923828</v>
+        <v>0.00708160400390625</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003383506015200046</v>
+        <v>0.00100075618050387</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002341461181640625</v>
+        <v>0.001839160919189453</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001178377791356946</v>
+        <v>7.549402988753517e-05</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -971,16 +1743,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.009214830398559571</v>
+        <v>0.007604646682739258</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003062678110605185</v>
+        <v>0.0009319560840501105</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002247142791748047</v>
+        <v>0.001896905899047852</v>
       </c>
       <c r="E3" t="n">
-        <v>4.12959699668908e-05</v>
+        <v>0.0001222147124770824</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -1020,16 +1792,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01432003974914551</v>
+        <v>0.009563302993774414</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005012017337039694</v>
+        <v>0.00100820781004424</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00224919319152832</v>
+        <v>0.001835107803344727</v>
       </c>
       <c r="E4" t="n">
-        <v>4.397653796548141e-05</v>
+        <v>0.0001047506075352772</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -1069,16 +1841,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02647247314453125</v>
+        <v>0.02109141349792481</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001855102582780547</v>
+        <v>0.00374301614073687</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002260494232177735</v>
+        <v>0.001981830596923828</v>
       </c>
       <c r="E5" t="n">
-        <v>7.609511334742314e-05</v>
+        <v>0.0001205429434684204</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -1092,7 +1864,7 @@
         <v>0.9375</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9134615384615384</v>
+        <v>0.9182692307692307</v>
       </c>
       <c r="J5" t="n">
         <v>0.9371980676328503</v>
@@ -1104,10 +1876,10 @@
         <v>0.927536231884058</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9257478632478632</v>
+        <v>0.9267094017094017</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01081455811145917</v>
+        <v>0.009850144381286454</v>
       </c>
       <c r="O5" t="n">
         <v>4</v>
@@ -1118,16 +1890,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07033686637878418</v>
+        <v>0.04181118011474609</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01619713710520082</v>
+        <v>0.001423123429656945</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002262973785400391</v>
+        <v>0.002199649810791016</v>
       </c>
       <c r="E6" t="n">
-        <v>4.127344447512493e-05</v>
+        <v>0.0003200358936335638</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -1141,10 +1913,10 @@
         <v>0.9326923076923077</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9134615384615384</v>
+        <v>0.9182692307692307</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9516908212560387</v>
+        <v>0.9468599033816425</v>
       </c>
       <c r="K6" t="n">
         <v>0.9130434782608695</v>
@@ -1153,10 +1925,10 @@
         <v>0.9033816425120773</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9228539576365664</v>
+        <v>0.9228493125232256</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01727421161775646</v>
+        <v>0.01529388595083606</v>
       </c>
       <c r="O6" t="n">
         <v>5</v>
@@ -1167,16 +1939,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3749877452850342</v>
+        <v>0.1486461639404297</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02855058967317393</v>
+        <v>0.01212514017511667</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00312657356262207</v>
+        <v>0.001920604705810547</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0007308661931637419</v>
+        <v>2.732181214525599e-05</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -1187,25 +1959,25 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.9278846153846154</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9038461538461539</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9371980676328503</v>
+        <v>0.9420289855072463</v>
       </c>
       <c r="K7" t="n">
         <v>0.9082125603864735</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8985507246376812</v>
+        <v>0.9033816425120773</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9151384243775549</v>
+        <v>0.9180323299888518</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01483056299792347</v>
+        <v>0.01366199143071596</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -1307,16 +2079,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.008054590225219727</v>
+        <v>0.006067228317260742</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002117275472066012</v>
+        <v>0.0006028063706237808</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002558755874633789</v>
+        <v>0.001814842224121094</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0006713685898879979</v>
+        <v>0.0001880280834565507</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -1327,28 +2099,28 @@
         </is>
       </c>
       <c r="H2" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.9241379310344827</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.9241379310344827</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9241379310344827</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.9241379310344827</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.9172413793103448</v>
-      </c>
       <c r="M2" t="n">
-        <v>0.9227586206896552</v>
+        <v>0.9296551724137931</v>
       </c>
       <c r="N2" t="n">
         <v>0.002758620689655178</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1356,16 +2128,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.007561445236206055</v>
+        <v>0.006761980056762695</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000213117778938632</v>
+        <v>0.0006952339958377402</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002166748046875</v>
+        <v>0.001782655715942383</v>
       </c>
       <c r="E3" t="n">
-        <v>7.016946775026618e-05</v>
+        <v>0.0001035531788843223</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -1376,28 +2148,28 @@
         </is>
       </c>
       <c r="H3" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.9241379310344827</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.9241379310344827</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.9241379310344827</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.9241379310344827</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.9172413793103448</v>
-      </c>
       <c r="M3" t="n">
-        <v>0.9227586206896552</v>
+        <v>0.9296551724137931</v>
       </c>
       <c r="N3" t="n">
         <v>0.002758620689655178</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1405,16 +2177,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01060266494750977</v>
+        <v>0.008835887908935547</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003383777184339967</v>
+        <v>0.0008291758020530375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002138137817382812</v>
+        <v>0.001923942565917969</v>
       </c>
       <c r="E4" t="n">
-        <v>1.603123405585126e-05</v>
+        <v>6.759199936262041e-05</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -1425,28 +2197,28 @@
         </is>
       </c>
       <c r="H4" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.9241379310344827</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.9241379310344827</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.9241379310344827</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.9241379310344827</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.9172413793103448</v>
-      </c>
       <c r="M4" t="n">
-        <v>0.9227586206896552</v>
+        <v>0.9296551724137931</v>
       </c>
       <c r="N4" t="n">
         <v>0.002758620689655178</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1454,16 +2226,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02128758430480957</v>
+        <v>0.01506128311157227</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001367981747323776</v>
+        <v>0.002145331590726699</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002308130264282227</v>
+        <v>0.001848506927490234</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0003185022367169496</v>
+        <v>6.57835529251255e-05</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -1474,28 +2246,28 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9172413793103448</v>
+        <v>0.9379310344827586</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9172413793103448</v>
+        <v>0.9241379310344827</v>
       </c>
       <c r="J5" t="n">
+        <v>0.9310344827586207</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.9379310344827586</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.903448275862069</v>
-      </c>
       <c r="L5" t="n">
+        <v>0.9241379310344827</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.9310344827586207</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.9213793103448277</v>
-      </c>
       <c r="N5" t="n">
-        <v>0.01202454880976737</v>
+        <v>0.006168463386206329</v>
       </c>
       <c r="O5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1503,16 +2275,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04589672088623047</v>
+        <v>0.03353080749511719</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002315051795759095</v>
+        <v>0.003313248553874999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002224636077880859</v>
+        <v>0.001915645599365234</v>
       </c>
       <c r="E6" t="n">
-        <v>4.612087708894468e-05</v>
+        <v>2.13623046875e-05</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -1526,22 +2298,22 @@
         <v>0.903448275862069</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8896551724137931</v>
+        <v>0.9241379310344827</v>
       </c>
       <c r="J6" t="n">
         <v>0.9310344827586207</v>
       </c>
       <c r="K6" t="n">
-        <v>0.896551724137931</v>
+        <v>0.9172413793103448</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9310344827586207</v>
+        <v>0.9241379310344827</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9103448275862069</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01744704915954966</v>
+        <v>0.009354937907758969</v>
       </c>
       <c r="O6" t="n">
         <v>5</v>
@@ -1552,16 +2324,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2357619762420654</v>
+        <v>0.147239351272583</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04770263606945434</v>
+        <v>0.01084833552695547</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002715253829956055</v>
+        <v>0.002009201049804688</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0006636828587679304</v>
+        <v>0.0001274775249434681</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -1572,25 +2344,25 @@
         </is>
       </c>
       <c r="H7" t="n">
+        <v>0.8896551724137931</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.896551724137931</v>
       </c>
-      <c r="I7" t="n">
-        <v>0.8827586206896552</v>
-      </c>
       <c r="J7" t="n">
-        <v>0.896551724137931</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8827586206896552</v>
+        <v>0.9103448275862069</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9241379310344827</v>
+        <v>0.9103448275862069</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8965517241379309</v>
+        <v>0.9075862068965517</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01510958779324595</v>
+        <v>0.01420086915998206</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -1692,16 +2464,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01135492324829102</v>
+        <v>0.005703210830688477</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001848082818989665</v>
+        <v>0.0008542797130996308</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003084802627563477</v>
+        <v>0.001720571517944336</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0005909424567611622</v>
+        <v>6.6140700090626e-05</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -1712,25 +2484,25 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.9365079365079365</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9365079365079365</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9358934971838198</v>
+        <v>0.9198668714797746</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0005016876073288919</v>
+        <v>0.0006271095091610741</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
@@ -1741,16 +2513,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01037578582763672</v>
+        <v>0.00630803108215332</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002630220280737889</v>
+        <v>0.0007411414527592049</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002842950820922852</v>
+        <v>0.001810741424560547</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0007498233822395181</v>
+        <v>0.0001562042694440146</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -1761,25 +2533,25 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.9365079365079365</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9365079365079365</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9358934971838198</v>
+        <v>0.9198668714797746</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0005016876073288919</v>
+        <v>0.0006271095091610741</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
@@ -1790,16 +2562,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01061129570007324</v>
+        <v>0.007183265686035156</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002638836970181798</v>
+        <v>0.000398711985525261</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003069114685058594</v>
+        <v>0.001976251602172852</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0007955093531821735</v>
+        <v>0.0005173245864177013</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -1810,25 +2582,25 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.9365079365079365</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9365079365079365</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9358934971838198</v>
+        <v>0.9198668714797746</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0005016876073288919</v>
+        <v>0.0006271095091610741</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -1839,16 +2611,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02025113105773926</v>
+        <v>0.01208209991455078</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005508457552583925</v>
+        <v>0.0009611091483104843</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00278620719909668</v>
+        <v>0.001817417144775391</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0007111847162630353</v>
+        <v>0.0001198664101511043</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -1859,25 +2631,25 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9365079365079365</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9206349206349206</v>
+        <v>0.873015873015873</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.9193548387096774</v>
       </c>
       <c r="K5" t="n">
         <v>0.9354838709677419</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9294930875576037</v>
+        <v>0.907168458781362</v>
       </c>
       <c r="N5" t="n">
-        <v>0.007774809174030649</v>
+        <v>0.02067851806659636</v>
       </c>
       <c r="O5" t="n">
         <v>4</v>
@@ -1888,16 +2660,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03903260231018067</v>
+        <v>0.02338833808898926</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00453364157982727</v>
+        <v>0.002144367325105809</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002502012252807617</v>
+        <v>0.001957464218139649</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0005551671791571404</v>
+        <v>0.0001291802290209861</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -1908,28 +2680,28 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.9365079365079365</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9206349206349206</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.8870967741935484</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.9032258064516129</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9354838709677419</v>
+        <v>0.8870967741935484</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9294930875576037</v>
+        <v>0.8783410138248847</v>
       </c>
       <c r="N6" t="n">
-        <v>0.007774809174030649</v>
+        <v>0.01828279670495612</v>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1937,16 +2709,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1477175712585449</v>
+        <v>0.09751553535461426</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03407742343096021</v>
+        <v>0.01822547239651524</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003151321411132813</v>
+        <v>0.001973628997802734</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0007925239937869165</v>
+        <v>0.0001170496825604725</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -1957,25 +2729,25 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.9047619047619048</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="I7" t="n">
         <v>0.873015873015873</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8870967741935484</v>
+        <v>0.8548387096774194</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8709677419354839</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9193548387096774</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8910394265232975</v>
+        <v>0.8332309267793139</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01861899292074942</v>
+        <v>0.02662846100185575</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -2077,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0103482723236084</v>
+        <v>0.00579524040222168</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002744490417308739</v>
+        <v>5.164280710913564e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003203248977661133</v>
+        <v>0.00239262580871582</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0009115877375169502</v>
+        <v>0.0007632719090428038</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -2097,25 +2869,25 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.9148936170212766</v>
+        <v>0.9290780141843972</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9214285714285714</v>
+        <v>0.9219858156028369</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9214285714285714</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9214285714285714</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9214285714285714</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9201215805471123</v>
+        <v>0.9273556231003039</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002613981762917916</v>
+        <v>0.00269206286840658</v>
       </c>
       <c r="O2" t="n">
         <v>2</v>
@@ -2126,16 +2898,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.009804058074951171</v>
+        <v>0.006505584716796875</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002300987118630711</v>
+        <v>0.0002955908351486872</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002791118621826172</v>
+        <v>0.001745796203613281</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0007910719027062352</v>
+        <v>6.831707055175575e-05</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -2146,25 +2918,25 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.9148936170212766</v>
+        <v>0.9290780141843972</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9214285714285714</v>
+        <v>0.9219858156028369</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9214285714285714</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9214285714285714</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9214285714285714</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9201215805471123</v>
+        <v>0.9273556231003039</v>
       </c>
       <c r="N3" t="n">
-        <v>0.002613981762917916</v>
+        <v>0.00269206286840658</v>
       </c>
       <c r="O3" t="n">
         <v>2</v>
@@ -2175,16 +2947,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01487250328063965</v>
+        <v>0.008614635467529297</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004793795588736102</v>
+        <v>0.0008095109209166798</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003066158294677734</v>
+        <v>0.001901769638061524</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0007089728111274009</v>
+        <v>0.0001091991032568513</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -2195,25 +2967,25 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.9148936170212766</v>
+        <v>0.9290780141843972</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9214285714285714</v>
+        <v>0.9219858156028369</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9214285714285714</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9214285714285714</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9214285714285714</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9201215805471123</v>
+        <v>0.9273556231003039</v>
       </c>
       <c r="N4" t="n">
-        <v>0.002613981762917916</v>
+        <v>0.00269206286840658</v>
       </c>
       <c r="O4" t="n">
         <v>2</v>
@@ -2224,16 +2996,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02725510597229004</v>
+        <v>0.01591958999633789</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005856655864475223</v>
+        <v>0.001344794584761675</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002585458755493164</v>
+        <v>0.00193328857421875</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0006151546498046469</v>
+        <v>9.646610167537939e-05</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -2244,25 +3016,25 @@
         </is>
       </c>
       <c r="H5" t="n">
+        <v>0.9219858156028369</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.9148936170212766</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.9285714285714286</v>
       </c>
       <c r="J5" t="n">
         <v>0.9285714285714286</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9071428571428571</v>
+        <v>0.9357142857142857</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9357142857142857</v>
+        <v>0.9428571428571428</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9229787234042552</v>
+        <v>0.9288044579533942</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01040091202731273</v>
+        <v>0.009851734408981842</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -2273,16 +3045,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.06418757438659668</v>
+        <v>0.03391447067260742</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004423078503228234</v>
+        <v>0.003640647776388613</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003014564514160156</v>
+        <v>0.002125215530395508</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0007243451507364115</v>
+        <v>0.0004139421530245173</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -2296,22 +3068,22 @@
         <v>0.9078014184397163</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8857142857142857</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9142857142857143</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="L6" t="n">
         <v>0.9285714285714286</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9058459979736575</v>
+        <v>0.9216818642350558</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01526757264409204</v>
+        <v>0.008730926250379162</v>
       </c>
       <c r="O6" t="n">
         <v>5</v>
@@ -2322,16 +3094,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2893113613128662</v>
+        <v>0.1520576953887939</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02153989515455869</v>
+        <v>0.01291890118238428</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003059196472167969</v>
+        <v>0.00192570686340332</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0006769837915578538</v>
+        <v>5.579198523818494e-06</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -2342,25 +3114,25 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.900709219858156</v>
+        <v>0.8865248226950354</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8642857142857143</v>
+        <v>0.8794326241134752</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8928571428571429</v>
+        <v>0.9214285714285714</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8857142857142857</v>
+        <v>0.9214285714285714</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.9214285714285714</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8944275582573455</v>
+        <v>0.9060486322188449</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02093886927912305</v>
+        <v>0.01896954725907682</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -2462,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.008923625946044922</v>
+        <v>0.005869340896606445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002271460891220331</v>
+        <v>0.0006178129999602586</v>
       </c>
       <c r="D2" t="n">
-        <v>0.003059577941894531</v>
+        <v>0.001750612258911133</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0008284874358568226</v>
+        <v>0.0001134991238891173</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -2482,28 +3254,28 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8804347826086957</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8901098901098901</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7786561264822135</v>
+        <v>0.8888915432393694</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0881963357247343</v>
+        <v>0.00425361134525654</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2511,16 +3283,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00769200325012207</v>
+        <v>0.005882596969604493</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002058996976394918</v>
+        <v>0.0003875131400883146</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002610397338867187</v>
+        <v>0.00167384147644043</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0007053249360844306</v>
+        <v>2.506485802214281e-05</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -2531,28 +3303,28 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8260869565217391</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8804347826086957</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8901098901098901</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8221343873517787</v>
+        <v>0.8888915432393694</v>
       </c>
       <c r="N3" t="n">
-        <v>0.04553181265718328</v>
+        <v>0.00425361134525654</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2560,16 +3332,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.009980440139770508</v>
+        <v>0.008238029479980469</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002185717477452053</v>
+        <v>0.0007041708519341383</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002858543395996094</v>
+        <v>0.001849842071533203</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000702706081821183</v>
+        <v>0.0001196416072951538</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -2580,25 +3352,25 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.7391304347826086</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8695652173913043</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8804347826086957</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.8901098901098901</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8399209486166008</v>
+        <v>0.8888915432393694</v>
       </c>
       <c r="N4" t="n">
-        <v>0.05044754320833832</v>
+        <v>0.00425361134525654</v>
       </c>
       <c r="O4" t="n">
         <v>1</v>
@@ -2609,16 +3381,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01397547721862793</v>
+        <v>0.01579360961914062</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002309786936714037</v>
+        <v>0.002238677302943672</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002526617050170898</v>
+        <v>0.002100372314453125</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0006826720339501393</v>
+        <v>0.0003659878674746077</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -2629,28 +3401,28 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.9021739130434783</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9021739130434783</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8791208791208791</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8395256916996047</v>
+        <v>0.8845198279980888</v>
       </c>
       <c r="N5" t="n">
-        <v>0.08959699278313193</v>
+        <v>0.01483079797825804</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2658,16 +3430,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03262701034545899</v>
+        <v>0.03739447593688965</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003832415000601166</v>
+        <v>0.01017032861054966</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002642202377319336</v>
+        <v>0.00201563835144043</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0005592088007073732</v>
+        <v>0.000195274067521003</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -2678,28 +3450,28 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.7934782608695652</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8681318681318682</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8221343873517787</v>
+        <v>0.8584089823220257</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1193387919089696</v>
+        <v>0.03359035971910999</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -2707,16 +3479,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1309070587158203</v>
+        <v>0.1287432193756103</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01844240519190405</v>
+        <v>0.03381946056776391</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002790927886962891</v>
+        <v>0.001916122436523438</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0007861734845607094</v>
+        <v>8.230656891254583e-06</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -2727,25 +3499,25 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.7282608695652174</v>
       </c>
       <c r="I7" t="n">
         <v>0.8260869565217391</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.7934782608695652</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.8586956521739131</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7592885375494072</v>
+        <v>0.8105351170568561</v>
       </c>
       <c r="N7" t="n">
-        <v>0.06420218341263859</v>
+        <v>0.04666900225909459</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -2847,16 +3619,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01024456024169922</v>
+        <v>0.005061483383178711</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002128715993785365</v>
+        <v>0.0004887577289486945</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002629852294921875</v>
+        <v>0.00177454948425293</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0006671702776915276</v>
+        <v>0.000169378035688766</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -2867,25 +3639,25 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.9105691056910569</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9105691056910569</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9105691056910569</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9105691056910569</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9024390243902439</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="M2" t="n">
-        <v>0.9089430894308943</v>
+        <v>0.8</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003252032520325176</v>
+        <v>0.007843137254901978</v>
       </c>
       <c r="O2" t="n">
         <v>3</v>
@@ -2896,16 +3668,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.009639978408813477</v>
+        <v>0.005596971511840821</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002868800642138321</v>
+        <v>0.0004224767695689602</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002593088150024414</v>
+        <v>0.001717042922973633</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0006636991626096882</v>
+        <v>8.728743507940777e-05</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -2916,25 +3688,25 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.9105691056910569</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9105691056910569</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9105691056910569</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9105691056910569</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9024390243902439</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9089430894308943</v>
+        <v>0.8</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003252032520325176</v>
+        <v>0.007843137254901978</v>
       </c>
       <c r="O3" t="n">
         <v>3</v>
@@ -2945,16 +3717,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0142798900604248</v>
+        <v>0.009314823150634765</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003277351096515103</v>
+        <v>0.001120573311647679</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00291132926940918</v>
+        <v>0.001788711547851562</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0006698288745628551</v>
+        <v>8.9914926154785e-05</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -2965,28 +3737,28 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.9105691056910569</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9105691056910569</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9105691056910569</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9105691056910569</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9024390243902439</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9089430894308943</v>
+        <v>0.807843137254902</v>
       </c>
       <c r="N4" t="n">
-        <v>0.003252032520325176</v>
+        <v>0.01467316622264289</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2994,16 +3766,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0255915641784668</v>
+        <v>0.01617307662963867</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003648753037825797</v>
+        <v>0.002628442475548293</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003034734725952149</v>
+        <v>0.001918888092041016</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0007551499459556001</v>
+        <v>8.415717904057071e-05</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -3014,25 +3786,25 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.943089430894309</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9105691056910569</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9105691056910569</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="K5" t="n">
-        <v>0.926829268292683</v>
+        <v>0.9019607843137255</v>
       </c>
       <c r="L5" t="n">
-        <v>0.926829268292683</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9235772357723577</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01216799150170391</v>
+        <v>0.04471276176859366</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -3043,16 +3815,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04342107772827149</v>
+        <v>0.02973794937133789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.001694054637393042</v>
+        <v>0.001087493979112952</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002370119094848633</v>
+        <v>0.001900053024291992</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0003113483020552804</v>
+        <v>3.452465675179172e-05</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -3063,28 +3835,28 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.9186991869918699</v>
+        <v>0.8431372549019608</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8780487804878049</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9105691056910569</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9024390243902439</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="L6" t="n">
-        <v>0.943089430894309</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9105691056910569</v>
+        <v>0.7921568627450981</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0212006582283013</v>
+        <v>0.07399200887887533</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -3092,16 +3864,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2159614562988281</v>
+        <v>0.1185387134552002</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01712511960372547</v>
+        <v>0.0112996568492512</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002279233932495117</v>
+        <v>0.00219569206237793</v>
       </c>
       <c r="E7" t="n">
-        <v>5.254550764072728e-05</v>
+        <v>0.0006160615877035777</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -3112,25 +3884,25 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.8861788617886179</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8780487804878049</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8617886178861789</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8861788617886179</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9186991869918699</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8861788617886178</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01853943780649004</v>
+        <v>0.05947353289452195</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
@@ -3232,16 +4004,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00750570297241211</v>
+        <v>0.004489326477050781</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001177896728187168</v>
+        <v>0.0002890784361638308</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002624893188476563</v>
+        <v>0.001969480514526367</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0007982359222347907</v>
+        <v>0.0005911554240099374</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -3252,28 +4024,28 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.8910891089108911</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8910891089108911</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8910891089108911</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8811881188118812</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L2" t="n">
-        <v>0.89</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8888910891089109</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N2" t="n">
-        <v>0.003874514367272091</v>
+        <v>0.01177897973129388</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3281,16 +4053,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.007413673400878906</v>
+        <v>0.004696226119995118</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007140203360923707</v>
+        <v>0.0002711399648662772</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002190542221069336</v>
+        <v>0.001708650588989258</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0001360041559683545</v>
+        <v>0.0001050035699388888</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -3301,28 +4073,28 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.8910891089108911</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8910891089108911</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8910891089108911</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8811881188118812</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L3" t="n">
-        <v>0.89</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8888910891089109</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003874514367272091</v>
+        <v>0.01177897973129388</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3330,16 +4102,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.009268569946289062</v>
+        <v>0.007705020904541016</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003631177546011256</v>
+        <v>0.0007969284487868502</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00210881233215332</v>
+        <v>0.001783943176269531</v>
       </c>
       <c r="E4" t="n">
-        <v>4.988819751606203e-05</v>
+        <v>0.0001092074317137072</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -3350,25 +4122,25 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.8910891089108911</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8910891089108911</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8910891089108911</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8811881188118812</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L4" t="n">
-        <v>0.89</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8888910891089109</v>
+        <v>0.7509677419354838</v>
       </c>
       <c r="N4" t="n">
-        <v>0.003874514367272091</v>
+        <v>0.06040140136307047</v>
       </c>
       <c r="O4" t="n">
         <v>2</v>
@@ -3379,16 +4151,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01920971870422363</v>
+        <v>0.01325001716613769</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001807802744432736</v>
+        <v>0.0005070006059633154</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002142477035522461</v>
+        <v>0.001802968978881836</v>
       </c>
       <c r="E5" t="n">
-        <v>5.211404763860415e-05</v>
+        <v>7.874881574740147e-05</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -3399,25 +4171,25 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9207920792079208</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8811881188118812</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="J5" t="n">
-        <v>0.900990099009901</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8613861386138614</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L5" t="n">
-        <v>0.89</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8908712871287129</v>
+        <v>0.7834408602150538</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01980677169752643</v>
+        <v>0.07869204808739377</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
@@ -3428,16 +4200,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04322428703308105</v>
+        <v>0.02710847854614258</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002058085831029344</v>
+        <v>0.001374796527254957</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002252721786499024</v>
+        <v>0.001911735534667969</v>
       </c>
       <c r="E6" t="n">
-        <v>5.186020078088064e-05</v>
+        <v>0.0001556953717269236</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -3448,28 +4220,28 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.8811881188118812</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8613861386138614</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8910891089108911</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8514851485148515</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L6" t="n">
-        <v>0.87</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8710297029702969</v>
+        <v>0.7372043010752687</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01401157671117509</v>
+        <v>0.1133918764957184</v>
       </c>
       <c r="O6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -3477,16 +4249,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2540708541870117</v>
+        <v>0.1059935569763184</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01453473702385007</v>
+        <v>0.01661820141137026</v>
       </c>
       <c r="D7" t="n">
-        <v>0.003028345108032226</v>
+        <v>0.001987838745117188</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0006966350565635621</v>
+        <v>0.0001422542468851745</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -3497,28 +4269,28 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.8415841584158416</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8118811881188119</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8712871287128713</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8415841584158416</v>
+        <v>0.7</v>
       </c>
       <c r="L7" t="n">
-        <v>0.84</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8412673267326733</v>
+        <v>0.730752688172043</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01879649188142106</v>
+        <v>0.0930579158191947</v>
       </c>
       <c r="O7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3617,16 +4389,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.007917022705078125</v>
+        <v>0.005930042266845703</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002082374864992462</v>
+        <v>0.0005871002705313399</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002794408798217774</v>
+        <v>0.001744937896728516</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001313556022546616</v>
+        <v>9.055555704599148e-05</v>
       </c>
       <c r="F2" t="n">
         <v>0.001</v>
@@ -3637,25 +4409,25 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.8035714285714286</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8035714285714286</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8035714285714286</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="K2" t="n">
-        <v>0.8035714285714286</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.9126984126984127</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8</v>
+        <v>0.919047619047619</v>
       </c>
       <c r="N2" t="n">
-        <v>0.007142857142857162</v>
+        <v>0.003174603174603163</v>
       </c>
       <c r="O2" t="n">
         <v>3</v>
@@ -3666,16 +4438,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.008964157104492188</v>
+        <v>0.006270074844360351</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002779590415185784</v>
+        <v>0.0002158378838273315</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002698516845703125</v>
+        <v>0.001719474792480469</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0007783272521754068</v>
+        <v>6.242415817999631e-05</v>
       </c>
       <c r="F3" t="n">
         <v>0.01</v>
@@ -3686,25 +4458,25 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.8035714285714286</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8035714285714286</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8035714285714286</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8035714285714286</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.9126984126984127</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8</v>
+        <v>0.919047619047619</v>
       </c>
       <c r="N3" t="n">
-        <v>0.007142857142857162</v>
+        <v>0.003174603174603163</v>
       </c>
       <c r="O3" t="n">
         <v>3</v>
@@ -3715,16 +4487,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01189308166503906</v>
+        <v>0.009000825881958007</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002513763818415362</v>
+        <v>0.0007203532470853169</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002465009689331055</v>
+        <v>0.001789045333862305</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0005771692194425415</v>
+        <v>7.79924569893915e-05</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -3735,28 +4507,28 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8035714285714286</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="K4" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8035714285714286</v>
+        <v>0.9126984126984127</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8142857142857143</v>
+        <v>0.919047619047619</v>
       </c>
       <c r="N4" t="n">
-        <v>0.008748177652797035</v>
+        <v>0.003174603174603163</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -3764,16 +4536,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01933479309082031</v>
+        <v>0.01416854858398437</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001622156021210172</v>
+        <v>0.00133310412837967</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002953910827636719</v>
+        <v>0.002301359176635742</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0009912862228496173</v>
+        <v>0.0008237182502062619</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -3784,28 +4556,28 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.8035714285714286</v>
+        <v>0.9365079365079365</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.9365079365079365</v>
       </c>
       <c r="J5" t="n">
-        <v>0.8392857142857143</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8214285714285714</v>
+        <v>0.9365079365079365</v>
       </c>
       <c r="M5" t="n">
-        <v>0.8071428571428572</v>
+        <v>0.9349206349206349</v>
       </c>
       <c r="N5" t="n">
-        <v>0.02082482819587608</v>
+        <v>0.007776157913597403</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3813,16 +4585,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03777108192443848</v>
+        <v>0.02774906158447266</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00576607102186888</v>
+        <v>0.002625362995789157</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002729415893554688</v>
+        <v>0.002006006240844726</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0006048553515859384</v>
+        <v>0.0001174913017700408</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
@@ -3833,28 +4605,28 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.6964285714285714</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7321428571428571</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.8968253968253969</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7714285714285715</v>
+        <v>0.9253968253968254</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05463235193135127</v>
+        <v>0.01781741612749494</v>
       </c>
       <c r="O6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -3862,16 +4634,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2231600284576416</v>
+        <v>0.1377021789550781</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01372668591981759</v>
+        <v>0.02491683515275827</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002212619781494141</v>
+        <v>0.002017879486083984</v>
       </c>
       <c r="E7" t="n">
-        <v>6.101496183576705e-05</v>
+        <v>0.0001009606944592939</v>
       </c>
       <c r="F7" t="n">
         <v>1000</v>
@@ -3882,25 +4654,25 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.6785714285714286</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8968253968253969</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.9126984126984127</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7321428571428571</v>
+        <v>0.9206349206349206</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.9126984126984127</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7392857142857143</v>
+        <v>0.9047619047619048</v>
       </c>
       <c r="N7" t="n">
-        <v>0.06144518047887588</v>
+        <v>0.01419725699999865</v>
       </c>
       <c r="O7" t="n">
         <v>6</v>
